--- a/Team-Data/2008-09/1-12-2008-09.xlsx
+++ b/Team-Data/2008-09/1-12-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,28 +811,28 @@
         <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="n">
         <v>10</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
       </c>
       <c r="AI2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>23</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>24</v>
-      </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -774,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -860,67 +927,67 @@
         <v>0.769</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76.5</v>
+        <v>76.2</v>
       </c>
       <c r="K3" t="n">
         <v>0.477</v>
       </c>
       <c r="L3" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.371</v>
+        <v>0.366</v>
       </c>
       <c r="O3" t="n">
         <v>21.2</v>
       </c>
       <c r="P3" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
-        <v>43.1</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="V3" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>8.5</v>
@@ -938,10 +1005,10 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -950,22 +1017,22 @@
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>15</v>
@@ -974,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1120,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1138,7 +1205,7 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
@@ -1162,10 +1229,10 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>21</v>
@@ -1177,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -1215,43 +1282,43 @@
         <v>37</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>0.405</v>
+        <v>0.432</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M5" t="n">
         <v>16.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.378</v>
+        <v>0.384</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.801</v>
+        <v>0.798</v>
       </c>
       <c r="R5" t="n">
         <v>11.6</v>
@@ -1263,10 +1330,10 @@
         <v>41.7</v>
       </c>
       <c r="U5" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1275,73 +1342,73 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG5" t="n">
         <v>19</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
         <v>20</v>
       </c>
-      <c r="AN5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>15</v>
       </c>
       <c r="AU5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>19</v>
@@ -1356,16 +1423,16 @@
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA5" t="n">
         <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -1394,94 +1461,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.853</v>
+        <v>0.829</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T6" t="n">
         <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.9</v>
+        <v>101.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>28</v>
@@ -1490,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
@@ -1502,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
@@ -1511,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR6" t="n">
         <v>17</v>
@@ -1526,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>5</v>
@@ -1535,13 +1602,13 @@
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -1654,25 +1721,25 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>17</v>
@@ -1681,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
         <v>25</v>
@@ -1693,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR7" t="n">
         <v>9</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT7" t="n">
         <v>2</v>
@@ -1708,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
@@ -1726,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1845,10 +1912,10 @@
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1881,7 +1948,7 @@
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>21</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1902,10 +1969,10 @@
         <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -2021,19 +2088,19 @@
         <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ9" t="n">
         <v>20</v>
@@ -2054,7 +2121,7 @@
         <v>24</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>23</v>
@@ -2063,22 +2130,22 @@
         <v>18</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
         <v>19</v>
       </c>
       <c r="AU9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV9" t="n">
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2087,13 +2154,13 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB9" t="n">
         <v>26</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2224,13 +2291,13 @@
         <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR10" t="n">
         <v>3</v>
@@ -2254,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -2391,10 +2458,10 @@
         <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2406,7 +2473,7 @@
         <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>10</v>
@@ -2421,16 +2488,16 @@
         <v>15</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
         <v>21</v>
       </c>
       <c r="AS11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT11" t="n">
         <v>4</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>25</v>
@@ -2451,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -2486,97 +2553,97 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.342</v>
+        <v>0.351</v>
       </c>
       <c r="H12" t="n">
         <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J12" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="M12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.356</v>
       </c>
       <c r="O12" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="U12" t="n">
         <v>22.9</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="R12" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>44</v>
-      </c>
-      <c r="U12" t="n">
-        <v>23.2</v>
-      </c>
       <c r="V12" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W12" t="n">
         <v>7.2</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.6</v>
+        <v>104.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
         <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI12" t="n">
         <v>2</v>
@@ -2588,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM12" t="n">
         <v>8</v>
@@ -2597,7 +2664,7 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
         <v>25</v>
@@ -2606,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
@@ -2618,13 +2685,13 @@
         <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW12" t="n">
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2779,7 +2846,7 @@
         <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
         <v>22</v>
@@ -2800,10 +2867,10 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2818,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.829</v>
+        <v>0.833</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,31 +2944,31 @@
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.379</v>
       </c>
       <c r="O14" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="P14" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>14.1</v>
@@ -2916,28 +2983,28 @@
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.1</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>28</v>
@@ -2946,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK14" t="n">
         <v>6</v>
@@ -2955,7 +3022,7 @@
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
         <v>11</v>
@@ -2967,13 +3034,13 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,16 +3055,16 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3143,7 +3210,7 @@
         <v>27</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3304,7 +3371,7 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
@@ -3322,7 +3389,7 @@
         <v>11</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3346,7 +3413,7 @@
         <v>26</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -3399,22 +3466,22 @@
         <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.487</v>
+        <v>0.462</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J17" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.445</v>
@@ -3423,46 +3490,46 @@
         <v>5.3</v>
       </c>
       <c r="M17" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
         <v>19.6</v>
       </c>
       <c r="P17" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R17" t="n">
         <v>12.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T17" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
         <v>6.9</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="AA17" t="n">
         <v>22.9</v>
@@ -3471,28 +3538,28 @@
         <v>97.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>22</v>
@@ -3504,7 +3571,7 @@
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3519,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT17" t="n">
         <v>8</v>
@@ -3528,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
         <v>22</v>
@@ -3549,7 +3616,7 @@
         <v>17</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-4.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
@@ -3698,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>22</v>
@@ -3713,7 +3780,7 @@
         <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
         <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
       <c r="H19" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I19" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>81</v>
+        <v>80.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.374</v>
+        <v>0.379</v>
       </c>
       <c r="O19" t="n">
         <v>20.3</v>
       </c>
       <c r="P19" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R19" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S19" t="n">
         <v>30</v>
       </c>
       <c r="T19" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U19" t="n">
         <v>19.4</v>
@@ -3817,10 +3884,10 @@
         <v>13.7</v>
       </c>
       <c r="W19" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
         <v>5.4</v>
@@ -3832,16 +3899,16 @@
         <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3853,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
@@ -3865,13 +3932,13 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN19" t="n">
         <v>10</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>8</v>
@@ -3883,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
         <v>17</v>
@@ -3895,7 +3962,7 @@
         <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
@@ -3907,7 +3974,7 @@
         <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -3942,94 +4009,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>0.647</v>
+        <v>0.667</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J20" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
         <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.391</v>
+        <v>0.394</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P20" t="n">
         <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R20" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="S20" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T20" t="n">
-        <v>39.1</v>
+        <v>38.7</v>
       </c>
       <c r="U20" t="n">
         <v>19.9</v>
       </c>
       <c r="V20" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y20" t="n">
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB20" t="n">
         <v>96</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4050,19 +4117,19 @@
         <v>12</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4074,13 +4141,13 @@
         <v>24</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY20" t="n">
         <v>3</v>
@@ -4089,13 +4156,13 @@
         <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BB20" t="n">
         <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
         <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.389</v>
+        <v>0.371</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J21" t="n">
-        <v>86.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.432</v>
       </c>
       <c r="L21" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="M21" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O21" t="n">
         <v>17.6</v>
@@ -4163,10 +4230,10 @@
         <v>22</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>31.6</v>
@@ -4175,46 +4242,46 @@
         <v>42.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W21" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
         <v>18.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.5</v>
+        <v>-3.8</v>
       </c>
       <c r="AD21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF21" t="n">
         <v>20</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>8</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP21" t="n">
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4253,10 +4320,10 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW21" t="n">
         <v>13</v>
@@ -4277,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -4306,19 +4373,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="n">
-        <v>0.154</v>
+        <v>0.158</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I22" t="n">
         <v>36.4</v>
@@ -4327,7 +4394,7 @@
         <v>82</v>
       </c>
       <c r="K22" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L22" t="n">
         <v>3.9</v>
@@ -4336,55 +4403,55 @@
         <v>10.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O22" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P22" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R22" t="n">
         <v>11.7</v>
       </c>
       <c r="S22" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T22" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
         <v>4.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-8.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4396,10 +4463,10 @@
         <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4414,25 +4481,25 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>20</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS22" t="n">
         <v>12</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AT22" t="n">
         <v>11</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>10</v>
       </c>
       <c r="AU22" t="n">
         <v>21</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -4578,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>20</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
         <v>13</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>13</v>
@@ -4808,13 +4875,13 @@
         <v>10</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4939,10 +5006,10 @@
         <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4963,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP25" t="n">
         <v>6</v>
@@ -4981,7 +5048,7 @@
         <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
         <v>28</v>
@@ -4993,7 +5060,7 @@
         <v>18</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -5037,94 +5104,94 @@
         <v>36</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.639</v>
+        <v>0.611</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>78.7</v>
+        <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.1</v>
       </c>
       <c r="P26" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.778</v>
+        <v>0.77</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
         <v>27.4</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="AA26" t="n">
         <v>20.9</v>
       </c>
-      <c r="AA26" t="n">
-        <v>21.1</v>
-      </c>
       <c r="AB26" t="n">
-        <v>98.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
@@ -5133,7 +5200,7 @@
         <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5145,13 +5212,13 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5169,25 +5236,25 @@
         <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>13</v>
       </c>
       <c r="BA26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5306,7 +5373,7 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5330,7 +5397,7 @@
         <v>13</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>3.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
         <v>5</v>
@@ -5491,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5527,7 +5594,7 @@
         <v>24</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -5580,61 +5647,61 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>0.41</v>
+        <v>0.421</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J29" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M29" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N29" t="n">
         <v>0.382</v>
       </c>
       <c r="O29" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P29" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.827</v>
+        <v>0.826</v>
       </c>
       <c r="R29" t="n">
         <v>8.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T29" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="U29" t="n">
         <v>21.9</v>
       </c>
       <c r="V29" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W29" t="n">
         <v>6.4</v>
@@ -5646,49 +5713,49 @@
         <v>4.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA29" t="n">
         <v>20.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH29" t="n">
         <v>19</v>
       </c>
-      <c r="AH29" t="n">
-        <v>15</v>
-      </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>22</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
         <v>12</v>
@@ -5709,16 +5776,16 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5727,10 +5794,10 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB29" t="n">
         <v>19</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="n">
         <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.605</v>
+        <v>0.595</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,67 +5847,67 @@
         <v>38</v>
       </c>
       <c r="J30" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.476</v>
       </c>
       <c r="L30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M30" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="O30" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="P30" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.772</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
         <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U30" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="V30" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W30" t="n">
         <v>8.9</v>
       </c>
       <c r="X30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>101.9</v>
+        <v>101.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
@@ -5852,7 +5919,7 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5873,28 +5940,28 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>0.189</v>
+        <v>0.194</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5971,43 +6038,43 @@
         <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.307</v>
+        <v>0.304</v>
       </c>
       <c r="O31" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P31" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.747</v>
+        <v>0.744</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S31" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T31" t="n">
         <v>39.8</v>
       </c>
       <c r="U31" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V31" t="n">
         <v>13.5</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z31" t="n">
         <v>20.5</v>
@@ -6016,34 +6083,34 @@
         <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC31" t="n">
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
         <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6064,7 +6131,7 @@
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AS31" t="n">
         <v>28</v>
@@ -6076,19 +6143,19 @@
         <v>17</v>
       </c>
       <c r="AV31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW31" t="n">
         <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-12-2008-09</t>
+          <t>2009-01-12</t>
         </is>
       </c>
     </row>
